--- a/data/trans_dic/P12_1_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P12_1_R-Clase-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.1078667518389476</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.1473099368968393</v>
+        <v>0.1473099368968392</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1244392484149908</v>
+        <v>0.1222414803785465</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1376301069269192</v>
+        <v>0.1348940207926405</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07502237610763637</v>
+        <v>0.07528673158090143</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1015039802263515</v>
+        <v>0.1026252905632481</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1543073972483728</v>
+        <v>0.151347009516855</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.134299950618542</v>
+        <v>0.1364918701107398</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.08038634745660625</v>
+        <v>0.08201931968413331</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.141651290911588</v>
+        <v>0.138200792998955</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.144526986516212</v>
+        <v>0.1442917590547041</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1444301874516856</v>
+        <v>0.1448640003014059</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.08596517326026878</v>
+        <v>0.08600856113263902</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1267337691056542</v>
+        <v>0.127610511393125</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1953480312567167</v>
+        <v>0.1939289654970578</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2150821229970972</v>
+        <v>0.2132857408223822</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1351332596689617</v>
+        <v>0.1349307737286519</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1610969557557029</v>
+        <v>0.1590729541448574</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2514940028119196</v>
+        <v>0.2387953344259093</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.224676567458107</v>
+        <v>0.2287599599080538</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.151484634675318</v>
+        <v>0.1546981560417429</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2006242108176955</v>
+        <v>0.1999211734955634</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1974659596023738</v>
+        <v>0.2009686526748065</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2082847261077935</v>
+        <v>0.2061563359232821</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1306251743984498</v>
+        <v>0.1308372021797785</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1680718519999265</v>
+        <v>0.1683064978088585</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09010611068780189</v>
+        <v>0.08690310470197192</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1189115100100243</v>
+        <v>0.1142016301069535</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06776426839250065</v>
+        <v>0.06691334354799709</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.09146066223519767</v>
+        <v>0.09098982927149801</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1684703108172964</v>
+        <v>0.1680845517520952</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2105829661209522</v>
+        <v>0.2121091045009308</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.09737998085059299</v>
+        <v>0.09693459615181577</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1676828980679735</v>
+        <v>0.1681383570203338</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1384035502300183</v>
+        <v>0.1380373422984083</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1698538148720729</v>
+        <v>0.1698626120887624</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.09121230491039387</v>
+        <v>0.09250972825488818</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1353262022424821</v>
+        <v>0.1352783409009534</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1616295521850585</v>
+        <v>0.1566000397230191</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1949207485363357</v>
+        <v>0.1944352867328278</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1301743016319792</v>
+        <v>0.1328947284200263</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1525509444224059</v>
+        <v>0.151875652900128</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2510513918300334</v>
+        <v>0.2529325691865953</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3148265555876933</v>
+        <v>0.307495734163081</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1698507817779837</v>
+        <v>0.1716124172161907</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2314540618527045</v>
+        <v>0.2337023512125543</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1904172398659813</v>
+        <v>0.1919373254068805</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2330820478613716</v>
+        <v>0.2345312350572288</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1384805501522986</v>
+        <v>0.1450316374383602</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1791166703246071</v>
+        <v>0.1820279113107386</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1512668495268858</v>
+        <v>0.1522938037968836</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1468955597866499</v>
+        <v>0.1504581453662424</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.09187930986187907</v>
+        <v>0.08968804584872109</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1204209043405904</v>
+        <v>0.1199740791687202</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1579957185202632</v>
+        <v>0.1535204979782926</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2001240137308155</v>
+        <v>0.1996378788388371</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1452132268315273</v>
+        <v>0.1440961145909432</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1532279576985587</v>
+        <v>0.1544331174972001</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1643528006595845</v>
+        <v>0.1632974461832457</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1735387263254859</v>
+        <v>0.173409217170254</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1110904114375889</v>
+        <v>0.1118499820168209</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1367256915617265</v>
+        <v>0.1366759072793956</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2167183358784519</v>
+        <v>0.2151683419605676</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2137652800792348</v>
+        <v>0.2139864272743948</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1527332207188226</v>
+        <v>0.1524272318027009</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1839558614805054</v>
+        <v>0.1835384344070119</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2822630659799694</v>
+        <v>0.2859291446361681</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3130489302603242</v>
+        <v>0.3186716537586966</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2792435717327651</v>
+        <v>0.2788667667331881</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2456968126593045</v>
+        <v>0.2465553823148703</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2233941592626645</v>
+        <v>0.2209421103942171</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2287124647289335</v>
+        <v>0.2304465471049811</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1648594084791823</v>
+        <v>0.1657243717857489</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1940252518852927</v>
+        <v>0.1913102073866705</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1784078334810612</v>
+        <v>0.1772863790290066</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1453059347490394</v>
+        <v>0.1461968170973568</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1134142403137422</v>
+        <v>0.1111718941317561</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1222667497185297</v>
+        <v>0.1212879603373353</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2011449709943908</v>
+        <v>0.2017099322292765</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2293522544728681</v>
+        <v>0.2294022565093732</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1425840031390866</v>
+        <v>0.1440258148164085</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1751962469675373</v>
+        <v>0.1803768325871246</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1927270596780093</v>
+        <v>0.1945348404977389</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.187067559634379</v>
+        <v>0.1869214161292251</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1300656089340538</v>
+        <v>0.1318779795048685</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1516171629880725</v>
+        <v>0.1511705096170349</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2216713054801061</v>
+        <v>0.2232175235271812</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1916507900598066</v>
+        <v>0.1917963662127041</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1536363041856328</v>
+        <v>0.1524377826921971</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1612499454458341</v>
+        <v>0.1613776175141873</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2632400044604893</v>
+        <v>0.2644292119877679</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2938606269535078</v>
+        <v>0.2941199783138938</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1932269297725111</v>
+        <v>0.1974770296106795</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2238747751908048</v>
+        <v>0.2227032132456866</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2310699715240083</v>
+        <v>0.2307482974818748</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2239709911325201</v>
+        <v>0.223243396376108</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1621416075135256</v>
+        <v>0.165062081610388</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1822546707659003</v>
+        <v>0.1816598452846542</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.131088002169221</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1442288035640223</v>
+        <v>0.1442288035640222</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.2541193325333611</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1478041210188973</v>
+        <v>0.1536035089118681</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.113800084216652</v>
+        <v>0.1161024392201229</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1076066192758015</v>
+        <v>0.1077431757218647</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1151156056192165</v>
+        <v>0.1132650274332</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2189993047102675</v>
+        <v>0.2192555809442913</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2455113171990109</v>
+        <v>0.2450836765218345</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1874640996258102</v>
+        <v>0.1865016540376293</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2057193793767027</v>
+        <v>0.2065113895232335</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2006825919928671</v>
+        <v>0.1995900359267999</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.198924105519271</v>
+        <v>0.2003159986928603</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.154464679549898</v>
+        <v>0.1560481762316336</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1757904788721065</v>
+        <v>0.1756893740053401</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2333731374917348</v>
+        <v>0.234657427182095</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1786287016388582</v>
+        <v>0.1776763472569076</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1633670598496687</v>
+        <v>0.1592105941367156</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1761685904626251</v>
+        <v>0.1780912914243099</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2910580786447409</v>
+        <v>0.2929947322625387</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.311068225683708</v>
+        <v>0.3119018338264279</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2460506030087643</v>
+        <v>0.2470907192183522</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2567906916511811</v>
+        <v>0.2566918129445092</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2567071526656819</v>
+        <v>0.2575802875376615</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2472385069792523</v>
+        <v>0.2477206541306296</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1972692404946452</v>
+        <v>0.2000201226626045</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2161113705724108</v>
+        <v>0.2145095328143619</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.1542723177545375</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.1665985576743468</v>
+        <v>0.1665985576743467</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.1902765820243865</v>
@@ -1377,7 +1377,7 @@
         <v>0.1358495374835892</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.149055325384254</v>
+        <v>0.1490553253842541</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.0499078674603728</v>
+        <v>0.05123920984548844</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05025891511267332</v>
+        <v>0.04986530837564163</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.04366559128359556</v>
+        <v>0.04111494831128652</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.04456443339466342</v>
+        <v>0.04530450089769935</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1958210377949389</v>
+        <v>0.193608075657495</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2410052579387927</v>
+        <v>0.242578586070771</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1322640127914896</v>
+        <v>0.1334062875446769</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1455625918339726</v>
+        <v>0.1459261843588079</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1726247845174231</v>
+        <v>0.1711849729293124</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2106236702795535</v>
+        <v>0.2085487065407805</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.118759778200897</v>
+        <v>0.1181533428812641</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1295981040840446</v>
+        <v>0.1301655488826274</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1074435072351637</v>
+        <v>0.1126859592239886</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.113825288713997</v>
+        <v>0.1150779728498567</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1024409251193902</v>
+        <v>0.1045873785938203</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.149282874882635</v>
+        <v>0.1557469182920619</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2406960500544909</v>
+        <v>0.2417299612833588</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2960017867369412</v>
+        <v>0.2980825202194261</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1766832672528342</v>
+        <v>0.1780877786935758</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1880233920647842</v>
+        <v>0.1901817683806359</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2126390997646217</v>
+        <v>0.2111438719418355</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2569067510142585</v>
+        <v>0.2553556506814641</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1578015812885451</v>
+        <v>0.1554350689968393</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1725890518978395</v>
+        <v>0.1730777814044299</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.156972218327306</v>
+        <v>0.1571328694723532</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1454840019093135</v>
+        <v>0.1445969604150348</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1063645667818176</v>
+        <v>0.104199914766637</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1212735799364078</v>
+        <v>0.1221271150059899</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.209076236464054</v>
+        <v>0.209407579549463</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2424976590775554</v>
+        <v>0.244178383323442</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1529052267670571</v>
+        <v>0.1531235487134874</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1839448587103484</v>
+        <v>0.1836015475072859</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1873266956193628</v>
+        <v>0.1868741031723911</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1999952862890317</v>
+        <v>0.1996155930408356</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1329498454939138</v>
+        <v>0.1332890796354924</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.157013918462977</v>
+        <v>0.157022111514499</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1823952884395752</v>
+        <v>0.1838181247305054</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.171261664642818</v>
+        <v>0.1705989411050862</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1294648554291849</v>
+        <v>0.1269339197973441</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1463187393683623</v>
+        <v>0.1471819979701117</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2381787723335413</v>
+        <v>0.2377036980084527</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2728235032552898</v>
+        <v>0.2737652786654262</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1797695466528414</v>
+        <v>0.1786913361332377</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2060877345238735</v>
+        <v>0.2060136627732361</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2065020247182871</v>
+        <v>0.2065033532008862</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2189357306865828</v>
+        <v>0.2196571723576127</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1497501515211359</v>
+        <v>0.1503419608478288</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1724342792376447</v>
+        <v>0.1730298599537771</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>58956</v>
+        <v>57915</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>60173</v>
+        <v>58977</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>32192</v>
+        <v>32305</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>55890</v>
+        <v>56507</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>47323</v>
+        <v>46415</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>42231</v>
+        <v>42920</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>27828</v>
+        <v>28393</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>69184</v>
+        <v>67499</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>112797</v>
+        <v>112614</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>108563</v>
+        <v>108889</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>66646</v>
+        <v>66680</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>131680</v>
+        <v>132591</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>92551</v>
+        <v>91879</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>94036</v>
+        <v>93251</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>57985</v>
+        <v>57898</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>88703</v>
+        <v>87588</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>77128</v>
+        <v>73234</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>70650</v>
+        <v>71934</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>52440</v>
+        <v>53552</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>97987</v>
+        <v>97644</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>154114</v>
+        <v>156847</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>156560</v>
+        <v>154961</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>101269</v>
+        <v>101434</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>174632</v>
+        <v>174875</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>33063</v>
+        <v>31888</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>49800</v>
+        <v>47827</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>25563</v>
+        <v>25242</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>44195</v>
+        <v>43967</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>62648</v>
+        <v>62505</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>70961</v>
+        <v>71475</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>36148</v>
+        <v>35982</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>70954</v>
+        <v>71147</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>102252</v>
+        <v>101982</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>128370</v>
+        <v>128377</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>68266</v>
+        <v>69237</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>122654</v>
+        <v>122610</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>59307</v>
+        <v>57462</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>81632</v>
+        <v>81429</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>49105</v>
+        <v>50131</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>73714</v>
+        <v>73388</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>93357</v>
+        <v>94057</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>106088</v>
+        <v>103617</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>63049</v>
+        <v>63703</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>97938</v>
+        <v>98890</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>140680</v>
+        <v>141803</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>176156</v>
+        <v>177251</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>103643</v>
+        <v>108546</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>162343</v>
+        <v>164982</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>82045</v>
+        <v>82602</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>92141</v>
+        <v>94375</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>47848</v>
+        <v>46707</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>56792</v>
+        <v>56581</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>26509</v>
+        <v>25758</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>51859</v>
+        <v>51733</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>24123</v>
+        <v>23938</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>28643</v>
+        <v>28868</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>116719</v>
+        <v>115969</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>153822</v>
+        <v>153707</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>76307</v>
+        <v>76829</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>90039</v>
+        <v>90007</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>117546</v>
+        <v>116705</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>134085</v>
+        <v>134223</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>79539</v>
+        <v>79379</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>86756</v>
+        <v>86559</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>47359</v>
+        <v>47974</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>81121</v>
+        <v>82578</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>46389</v>
+        <v>46326</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>45928</v>
+        <v>46088</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>158648</v>
+        <v>156907</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>202727</v>
+        <v>204264</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>113240</v>
+        <v>113834</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>127773</v>
+        <v>125985</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>220928</v>
+        <v>219540</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>168271</v>
+        <v>169302</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>130269</v>
+        <v>127693</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>138281</v>
+        <v>137174</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>143675</v>
+        <v>144078</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>175363</v>
+        <v>175401</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>117636</v>
+        <v>118826</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>150881</v>
+        <v>155343</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>376323</v>
+        <v>379853</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>359665</v>
+        <v>359384</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>256703</v>
+        <v>260280</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>302050</v>
+        <v>301160</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>274503</v>
+        <v>276418</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>221940</v>
+        <v>222109</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>176469</v>
+        <v>175092</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>182370</v>
+        <v>182514</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>188028</v>
+        <v>188878</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>224686</v>
+        <v>224884</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>159418</v>
+        <v>162925</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>192803</v>
+        <v>191794</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>451192</v>
+        <v>450564</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>430617</v>
+        <v>429218</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>320010</v>
+        <v>325774</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>363085</v>
+        <v>361900</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>51813</v>
+        <v>53846</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>58106</v>
+        <v>59281</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>66792</v>
+        <v>66877</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>65382</v>
+        <v>64330</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>124556</v>
+        <v>124702</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>186729</v>
+        <v>186404</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>138394</v>
+        <v>137684</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>170826</v>
+        <v>171484</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>184489</v>
+        <v>183485</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>252866</v>
+        <v>254635</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>209910</v>
+        <v>212062</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>245816</v>
+        <v>245675</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>81810</v>
+        <v>82260</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>91207</v>
+        <v>90721</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>101403</v>
+        <v>98823</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>100057</v>
+        <v>101149</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>165540</v>
+        <v>166641</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>236589</v>
+        <v>237223</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>181645</v>
+        <v>182413</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>213235</v>
+        <v>213153</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>235993</v>
+        <v>236795</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>314281</v>
+        <v>314894</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>268079</v>
+        <v>271817</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>302199</v>
+        <v>299959</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>14883</v>
+        <v>15280</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>13413</v>
+        <v>13308</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>12538</v>
+        <v>11806</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>10572</v>
+        <v>10747</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>244533</v>
+        <v>241770</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>266647</v>
+        <v>268388</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>142674</v>
+        <v>143906</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>122896</v>
+        <v>123203</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>267044</v>
+        <v>264816</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>289245</v>
+        <v>286395</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>162208</v>
+        <v>161380</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>140162</v>
+        <v>140775</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>32040</v>
+        <v>33603</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>30378</v>
+        <v>30712</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>29415</v>
+        <v>30032</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>35414</v>
+        <v>36948</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>300572</v>
+        <v>301863</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>327495</v>
+        <v>329797</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>190589</v>
+        <v>192104</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>158745</v>
+        <v>160567</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>328944</v>
+        <v>326631</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>352804</v>
+        <v>350674</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>215533</v>
+        <v>212301</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>186657</v>
+        <v>187185</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>513329</v>
+        <v>513854</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>497378</v>
+        <v>494345</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>359890</v>
+        <v>352566</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>417376</v>
+        <v>420314</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>706285</v>
+        <v>707405</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>858957</v>
+        <v>864911</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>539064</v>
+        <v>539834</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>668522</v>
+        <v>667274</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1245407</v>
+        <v>1242398</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1392149</v>
+        <v>1389506</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>918554</v>
+        <v>920898</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1111025</v>
+        <v>1111083</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>596467</v>
+        <v>601120</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>585506</v>
+        <v>583241</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>438051</v>
+        <v>429487</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>503572</v>
+        <v>506543</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>804597</v>
+        <v>802993</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>966375</v>
+        <v>969711</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>633774</v>
+        <v>629973</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>748997</v>
+        <v>748728</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1372890</v>
+        <v>1372899</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>1523991</v>
+        <v>1529013</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>1034628</v>
+        <v>1038717</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1220139</v>
+        <v>1224354</v>
       </c>
     </row>
     <row r="32">
